--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="171">
   <si>
     <t>土地坐落</t>
   </si>
@@ -292,6 +292,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>南亞</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
   </si>
   <si>
     <t>聯格科技</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1059,19 +1071,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1079,22 +1091,22 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2047,13 +2059,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2072,13 +2084,22 @@
       <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2095,13 +2116,22 @@
       <c r="G2" s="2">
         <v>83250</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2118,13 +2148,22 @@
       <c r="G3" s="2">
         <v>1980</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2141,13 +2180,22 @@
       <c r="G4" s="2">
         <v>210550</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2164,13 +2212,22 @@
       <c r="G5" s="2">
         <v>269240</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2187,13 +2244,22 @@
       <c r="G6" s="2">
         <v>61880</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2210,13 +2276,22 @@
       <c r="G7" s="2">
         <v>5430</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2233,13 +2308,22 @@
       <c r="G8" s="2">
         <v>3310</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2256,13 +2340,22 @@
       <c r="G9" s="2">
         <v>14160</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2279,13 +2372,22 @@
       <c r="G10" s="2">
         <v>129640</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2302,13 +2404,22 @@
       <c r="G11" s="2">
         <v>690</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2325,13 +2436,22 @@
       <c r="G12" s="2">
         <v>94350</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2348,13 +2468,22 @@
       <c r="G13" s="2">
         <v>9250</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2371,13 +2500,22 @@
       <c r="G14" s="2">
         <v>520</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2393,6 +2531,15 @@
       </c>
       <c r="G15" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -2410,22 +2557,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -2436,25 +2583,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2462,13 +2609,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2477,10 +2624,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2488,13 +2635,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2503,10 +2650,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2514,13 +2661,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2529,10 +2676,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2540,13 +2687,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2555,10 +2702,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2566,25 +2713,25 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2592,13 +2739,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -2607,10 +2754,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2618,13 +2765,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -2633,10 +2780,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2644,13 +2791,13 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -2659,10 +2806,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2680,31 +2827,31 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>54</v>
@@ -2715,34 +2862,34 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2760,13 +2907,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2774,10 +2921,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2788,10 +2935,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2802,10 +2949,10 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2816,10 +2963,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2830,10 +2977,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2844,10 +2991,10 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="174">
   <si>
     <t>土地坐落</t>
   </si>
@@ -292,6 +292,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -322,7 +325,7 @@
     <t>永大</t>
   </si>
   <si>
-    <t>中鋼 •</t>
+    <t>中鋼•</t>
   </si>
   <si>
     <t>鴻海精密</t>
@@ -341,6 +344,12 @@
   </si>
   <si>
     <t>聯格科技</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-17</t>
@@ -1071,19 +1080,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1091,22 +1100,22 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2059,13 +2068,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2093,13 +2102,16 @@
       <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2117,21 +2129,24 @@
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2149,21 +2164,24 @@
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2181,21 +2199,24 @@
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2213,21 +2234,24 @@
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2245,21 +2269,24 @@
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2277,21 +2304,24 @@
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2309,21 +2339,24 @@
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2341,21 +2374,24 @@
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2373,21 +2409,24 @@
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2405,21 +2444,24 @@
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2437,21 +2479,24 @@
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2469,21 +2514,24 @@
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2501,21 +2549,24 @@
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2530,15 +2581,18 @@
         <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>1322</v>
       </c>
     </row>
@@ -2557,22 +2611,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -2583,25 +2637,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2609,13 +2663,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2624,10 +2678,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2635,13 +2689,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2650,10 +2704,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2661,13 +2715,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2676,10 +2730,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2687,13 +2741,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2702,10 +2756,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2713,25 +2767,25 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2739,13 +2793,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -2754,10 +2808,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2765,13 +2819,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -2780,10 +2834,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2791,13 +2845,13 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -2806,10 +2860,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2827,31 +2881,31 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>54</v>
@@ -2862,34 +2916,34 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2907,13 +2961,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2921,10 +2975,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2935,10 +2989,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2949,10 +3003,10 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2963,10 +3017,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2977,10 +3031,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2991,10 +3045,10 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="179">
   <si>
     <t>土地坐落</t>
   </si>
@@ -295,6 +295,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -304,6 +307,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>南亞</t>
   </si>
   <si>
@@ -325,7 +334,7 @@
     <t>永大</t>
   </si>
   <si>
-    <t>中鋼•</t>
+    <t>中鋼</t>
   </si>
   <si>
     <t>鴻海精密</t>
@@ -352,7 +361,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpe6fb1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1080,19 +1095,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1100,22 +1115,22 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2068,13 +2083,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2105,13 +2120,22 @@
       <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2129,24 +2153,33 @@
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2164,24 +2197,33 @@
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2199,24 +2241,33 @@
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2234,24 +2285,33 @@
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2269,24 +2329,33 @@
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2304,24 +2373,33 @@
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2339,24 +2417,33 @@
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2374,24 +2461,33 @@
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2409,24 +2505,33 @@
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2444,24 +2549,33 @@
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="2">
         <v>108</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2479,24 +2593,33 @@
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="2">
         <v>109</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2514,24 +2637,33 @@
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2549,24 +2681,33 @@
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2581,19 +2722,28 @@
         <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>1322</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2611,22 +2761,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -2637,25 +2787,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2663,13 +2813,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2678,10 +2828,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2689,13 +2839,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2704,10 +2854,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2715,13 +2865,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2730,10 +2880,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2741,13 +2891,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2756,10 +2906,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2767,25 +2917,25 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2793,13 +2943,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -2808,10 +2958,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2819,13 +2969,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -2834,10 +2984,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2845,13 +2995,13 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -2860,10 +3010,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2881,31 +3031,31 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>54</v>
@@ -2916,34 +3066,34 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2961,13 +3111,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2975,10 +3125,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2989,10 +3139,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -3003,10 +3153,10 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -3017,10 +3167,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3031,10 +3181,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -3045,10 +3195,10 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,9 +23,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="179">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="179">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02300001地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02300000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段06420000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段06530000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段04960000地號</t>
+  </si>
+  <si>
+    <t>10000分之34</t>
+  </si>
+  <si>
+    <t>26590分之90</t>
+  </si>
+  <si>
+    <t>1000000分之7721</t>
+  </si>
+  <si>
+    <t>1000000分之60</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>吳育昇</t>
+  </si>
+  <si>
+    <t>劉娟娟</t>
+  </si>
+  <si>
+    <t>76年01月01日</t>
+  </si>
+  <si>
+    <t>95年03月15白</t>
+  </si>
+  <si>
+    <t>95年03月15日</t>
+  </si>
+  <si>
+    <t>85年01月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpe6fb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,118 +160,55 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段 0230-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 0230-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0642-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0653-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 0496-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 34</t>
-  </si>
-  <si>
-    <t>26590分之 •90</t>
-  </si>
-  <si>
-    <t>1000000 分 之 7721</t>
-  </si>
-  <si>
-    <t>1000000 分 之60</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>吳育昇</t>
-  </si>
-  <si>
-    <t>劉娟娟</t>
-  </si>
-  <si>
-    <t>76年01月 01日</t>
-  </si>
-  <si>
-    <t>95年03月 15白</t>
-  </si>
-  <si>
-    <t>95年03月 15日</t>
-  </si>
-  <si>
-    <t>85年01月 19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 02158-000建號(（陽台5.05平 方公尺，露台7.57平方公尺)）</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 01814-000 建號（（陽台 16.18 平 方公尺)）</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01616-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01759-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01760-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01761 -000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01762-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01769-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01770-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01825-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01826-000 建號</t>
-  </si>
-  <si>
-    <t>1,132.07</t>
+    <t>臺北市大安區懷生段三小段02158000建號(（陽台5.05平方公尺露台7.57平方公尺)）</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01616000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01759000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01760000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01761000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01762000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01769000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01770000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01825000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01826000建號</t>
+  </si>
+  <si>
+    <t>1132.07</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之303</t>
-  </si>
-  <si>
-    <t>85年01月 19曰</t>
-  </si>
-  <si>
-    <t>76年01月 01曰</t>
-  </si>
-  <si>
-    <t>95年Q3月 15日</t>
+    <t>100000分之303</t>
+  </si>
+  <si>
+    <t>85年01月19曰</t>
+  </si>
+  <si>
+    <t>76年01月01曰</t>
+  </si>
+  <si>
+    <t>95年Q3月15日</t>
   </si>
   <si>
     <t>(超堝石年）</t>
@@ -178,10 +229,10 @@
     <t>曰產</t>
   </si>
   <si>
-    <t>95年11月 14日</t>
-  </si>
-  <si>
-    <t>93年07月 20日</t>
+    <t>95年11月14日</t>
+  </si>
+  <si>
+    <t>93年07月20日</t>
   </si>
   <si>
     <t>幣別</t>
@@ -265,19 +316,13 @@
     <t>吳肓昇</t>
   </si>
   <si>
-    <t>1,682,717</t>
-  </si>
-  <si>
-    <t>2,024,796</t>
-  </si>
-  <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1682717</t>
+  </si>
+  <si>
+    <t>2024796</t>
+  </si>
+  <si>
+    <t>1000000</t>
   </si>
   <si>
     <t>quantity</t>
@@ -292,27 +337,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>南亞</t>
   </si>
   <si>
@@ -355,21 +379,9 @@
     <t>聯格科技</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmpe6fb1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -403,25 +415,16 @@
     <t>摩根大中華</t>
   </si>
   <si>
-    <t>坦伯頓全球亞洲 成長</t>
+    <t>坦伯頓全球亞洲成長</t>
   </si>
   <si>
     <t>富達拉丁美洲</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業 銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業 銀行</t>
-  </si>
-  <si>
-    <t>60,36</t>
-  </si>
-  <si>
-    <t>1,208.587</t>
+    <t>6036</t>
+  </si>
+  <si>
+    <t>1208.587</t>
   </si>
   <si>
     <t>美金</t>
@@ -430,31 +433,31 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>39,279.99</t>
-  </si>
-  <si>
-    <t>26,885.60</t>
-  </si>
-  <si>
-    <t>28,744.40</t>
-  </si>
-  <si>
-    <t>67,512.78</t>
-  </si>
-  <si>
-    <t>69,564.21</t>
-  </si>
-  <si>
-    <t>850,164.81</t>
-  </si>
-  <si>
-    <t>57,297.64</t>
-  </si>
-  <si>
-    <t>64,125.35</t>
-  </si>
-  <si>
-    <t>63,079.63</t>
+    <t>39279.99</t>
+  </si>
+  <si>
+    <t>26885.60</t>
+  </si>
+  <si>
+    <t>28744.40</t>
+  </si>
+  <si>
+    <t>67512.78</t>
+  </si>
+  <si>
+    <t>69564.21</t>
+  </si>
+  <si>
+    <t>850164.81</t>
+  </si>
+  <si>
+    <t>57297.64</t>
+  </si>
+  <si>
+    <t>64125.35</t>
+  </si>
+  <si>
+    <t>63079.63</t>
   </si>
   <si>
     <t>名</t>
@@ -478,7 +481,7 @@
     <t>額</t>
   </si>
   <si>
-    <t>財 產</t>
+    <t>財產</t>
   </si>
   <si>
     <t>種</t>
@@ -490,9 +493,6 @@
     <t>項</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>件</t>
   </si>
   <si>
@@ -550,13 +550,13 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>臺灣土地銀行萬華分行 臺北市萬華區西園路</t>
-  </si>
-  <si>
-    <t>1,938,296</t>
-  </si>
-  <si>
-    <t>95年03月 20日</t>
+    <t>臺灣土地銀行萬華分行臺北市萬華區西園路</t>
+  </si>
+  <si>
+    <t>1938296</t>
+  </si>
+  <si>
+    <t>95年03月20日</t>
   </si>
   <si>
     <t>貸款</t>
@@ -918,13 +918,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,135 +946,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1808</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4324.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>3083.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1218,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>169</v>
@@ -1118,7 +1244,7 @@
         <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>175</v>
@@ -1148,25 +1274,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1174,25 +1300,25 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>62.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1200,25 +1326,25 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>131.42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1226,25 +1352,25 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>163.72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1252,25 +1378,25 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>88.29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1278,25 +1404,25 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>36.83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1304,25 +1430,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>51.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1330,25 +1456,25 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>186.48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1356,25 +1482,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>480.06</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1382,25 +1508,25 @@
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>547.61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1408,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1434,25 +1560,25 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2">
         <v>605.17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1470,22 +1596,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1493,19 +1619,19 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>2349</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>868000</v>
@@ -1516,19 +1642,19 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>1275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2">
         <v>376000</v>
@@ -1549,13 +1675,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1563,10 +1689,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>60000</v>
@@ -1577,10 +1703,10 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>100000</v>
@@ -1601,19 +1727,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1621,16 +1747,16 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>558456</v>
@@ -1641,16 +1767,16 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>55044</v>
@@ -1661,16 +1787,16 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>129524</v>
@@ -1681,16 +1807,16 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>50</v>
@@ -1701,16 +1827,16 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
         <v>117840</v>
@@ -1721,16 +1847,16 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>152689</v>
@@ -1741,16 +1867,16 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>22884</v>
@@ -1761,16 +1887,16 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>921</v>
@@ -1781,16 +1907,16 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>126319</v>
@@ -1801,16 +1927,16 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2">
         <v>534901</v>
@@ -1821,16 +1947,16 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2">
         <v>499295</v>
@@ -1841,16 +1967,16 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
         <v>281</v>
@@ -1861,16 +1987,16 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>276737</v>
@@ -1881,16 +2007,16 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
         <v>314961</v>
@@ -1901,16 +2027,16 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2">
         <v>759338</v>
@@ -1921,16 +2047,16 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>996008</v>
@@ -1941,16 +2067,16 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>54</v>
@@ -1961,19 +2087,19 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1981,16 +2107,16 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2">
         <v>75454</v>
@@ -2001,16 +2127,16 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F21" s="2">
         <v>76272</v>
@@ -2021,19 +2147,19 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2041,19 +2167,19 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2061,16 +2187,16 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2">
         <v>52000</v>
@@ -2091,43 +2217,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2135,10 +2261,10 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>8325</v>
@@ -2147,28 +2273,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2">
         <v>99</v>
@@ -2179,10 +2305,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>198</v>
@@ -2191,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1322</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N3" s="2">
         <v>100</v>
@@ -2223,10 +2349,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>21055</v>
@@ -2235,28 +2361,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1322</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2">
         <v>101</v>
@@ -2267,10 +2393,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>26924</v>
@@ -2279,28 +2405,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1322</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N5" s="2">
         <v>102</v>
@@ -2311,10 +2437,10 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>6188</v>
@@ -2323,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2">
         <v>103</v>
@@ -2355,10 +2481,10 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>543</v>
@@ -2367,28 +2493,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1322</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2">
         <v>104</v>
@@ -2399,10 +2525,10 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>331</v>
@@ -2411,28 +2537,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1322</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2">
         <v>105</v>
@@ -2443,10 +2569,10 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>1416</v>
@@ -2455,28 +2581,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1322</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2">
         <v>106</v>
@@ -2487,10 +2613,10 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>12964</v>
@@ -2499,28 +2625,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1322</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2">
         <v>107</v>
@@ -2531,10 +2657,10 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>69</v>
@@ -2543,28 +2669,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1322</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2">
         <v>108</v>
@@ -2575,10 +2701,10 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2587,28 +2713,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>1322</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N12" s="2">
         <v>109</v>
@@ -2619,10 +2745,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>925</v>
@@ -2631,28 +2757,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2">
         <v>1322</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2">
         <v>110</v>
@@ -2663,10 +2789,10 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>52</v>
@@ -2675,28 +2801,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
         <v>1322</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N14" s="2">
         <v>111</v>
@@ -2707,10 +2833,10 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -2719,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2">
         <v>1322</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N15" s="2">
         <v>112</v>
@@ -2761,25 +2887,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2787,25 +2913,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2813,13 +2939,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2828,10 +2954,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2839,13 +2965,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2854,10 +2980,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2865,13 +2991,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2880,10 +3006,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2891,13 +3017,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2906,10 +3032,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2917,25 +3043,25 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2943,13 +3069,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -2958,10 +3084,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2969,13 +3095,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -2984,10 +3110,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2995,13 +3121,13 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -3010,10 +3136,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3031,34 +3157,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3066,34 +3192,32 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3255,7 @@
         <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3145,7 +3269,7 @@
         <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3159,7 +3283,7 @@
         <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3173,7 +3297,7 @@
         <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3187,7 +3311,7 @@
         <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3201,7 +3325,7 @@
         <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -67,7 +67,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段02300001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區通化段一小段02300000地號</t>
@@ -82,9 +85,6 @@
     <t>臺北市大安區懷生段三小段04960000地號</t>
   </si>
   <si>
-    <t>10000分之34</t>
-  </si>
-  <si>
     <t>26590分之90</t>
   </si>
   <si>
@@ -139,30 +139,15 @@
     <t>tmpe6fb1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市大安區懷生段三小段02158000建號(（陽台5.05平方公尺露台7.57平方公尺)）</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>85年01月19曰</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
   </si>
   <si>
@@ -196,15 +181,9 @@
     <t>1132.07</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100000分之303</t>
   </si>
   <si>
-    <t>85年01月19曰</t>
-  </si>
-  <si>
     <t>76年01月01曰</t>
   </si>
   <si>
@@ -214,18 +193,6 @@
     <t>(超堝石年）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取.得）時間</t>
-  </si>
-  <si>
     <t>曰產</t>
   </si>
   <si>
@@ -235,24 +202,15 @@
     <t>93年07月20日</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>台北銀行</t>
   </si>
   <si>
@@ -289,9 +247,6 @@
     <t>臺灣銀行劍潭分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -334,12 +289,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>南亞</t>
-  </si>
-  <si>
     <t>台灣積電</t>
   </si>
   <si>
@@ -382,24 +331,18 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面.價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>施羅德新興亞洲</t>
   </si>
   <si>
+    <t>6036</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>39279.99</t>
+  </si>
+  <si>
     <t>貝萊德新興歐洲</t>
   </si>
   <si>
@@ -421,21 +364,12 @@
     <t>富達拉丁美洲</t>
   </si>
   <si>
-    <t>6036</t>
-  </si>
-  <si>
     <t>1208.587</t>
   </si>
   <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>39279.99</t>
-  </si>
-  <si>
     <t>26885.60</t>
   </si>
   <si>
@@ -460,10 +394,19 @@
     <t>63079.63</t>
   </si>
   <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
+    <t>財產</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
   </si>
   <si>
     <t>所</t>
@@ -478,36 +421,12 @@
     <t>價</t>
   </si>
   <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>大都會國際人壽</t>
   </si>
   <si>
+    <t>大都會終身壽險</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -517,9 +436,6 @@
     <t>友邦人壽</t>
   </si>
   <si>
-    <t>大都會終身壽險</t>
-  </si>
-  <si>
     <t>富邦人壽子女儲蓄保險</t>
   </si>
   <si>
@@ -530,21 +446,6 @@
   </si>
   <si>
     <t>南山康寧終身壽險</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -918,13 +819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,19 +868,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1808</v>
+        <v>2659</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1012,27 +919,33 @@
         <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00338473110191801</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2659</v>
+        <v>4324.24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>30</v>
@@ -1059,30 +972,36 @@
         <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.007721</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>33.38745704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4324.24</v>
+        <v>3083.12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>33</v>
@@ -1106,30 +1025,36 @@
         <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6e-05</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.1849872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>3083.12</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>33</v>
@@ -1153,54 +1078,13 @@
         <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>117</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1322</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>23.4</v>
       </c>
     </row>
   </sheetData>
@@ -1209,6 +1093,335 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1">
+        <v>62.37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>131.42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>163.72</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>88.29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36.83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>51.15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>186.48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>480.06</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>547.61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>605.17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1218,445 +1431,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>56</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>868000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>62.37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2">
-        <v>131.42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2">
-        <v>163.72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
-        <v>88.29</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>36.83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2">
-        <v>51.15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2">
-        <v>186.48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2">
-        <v>480.06</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2">
-        <v>547.61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2">
-        <v>605.17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2349</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="2">
-        <v>868000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1275</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
         <v>376000</v>
       </c>
     </row>
@@ -1667,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1675,40 +1487,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="D1" s="1">
+        <v>60000</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -1719,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1727,478 +1525,458 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>558456</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>558456</v>
+        <v>55044</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>55044</v>
+        <v>129524</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>129524</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
+        <v>117840</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>117840</v>
+        <v>152689</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>152689</v>
+        <v>22884</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>22884</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="2">
-        <v>921</v>
+        <v>126319</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2">
-        <v>126319</v>
+        <v>534901</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2">
-        <v>534901</v>
+        <v>499295</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2">
-        <v>499295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
-        <v>281</v>
+        <v>276737</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
-        <v>276737</v>
+        <v>314961</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2">
-        <v>314961</v>
+        <v>759338</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>759338</v>
+        <v>996008</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="2">
-        <v>996008</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <v>75454</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2">
-        <v>75454</v>
+        <v>76272</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="2">
-        <v>76272</v>
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>90</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="F23" s="2">
         <v>52000</v>
       </c>
     </row>
@@ -2209,7 +1987,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2223,16 +2001,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2258,28 +2036,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>8325</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
-        <v>83250</v>
+        <v>1980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -2297,33 +2075,33 @@
         <v>37</v>
       </c>
       <c r="N2" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>198</v>
+        <v>21055</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
-        <v>1980</v>
+        <v>210550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -2341,33 +2119,33 @@
         <v>37</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>21055</v>
+        <v>26924</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2">
-        <v>210550</v>
+        <v>269240</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -2385,33 +2163,33 @@
         <v>37</v>
       </c>
       <c r="N4" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>26924</v>
+        <v>6188</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2">
-        <v>269240</v>
+        <v>61880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -2429,33 +2207,33 @@
         <v>37</v>
       </c>
       <c r="N5" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>6188</v>
+        <v>543</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2">
-        <v>61880</v>
+        <v>5430</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -2473,33 +2251,33 @@
         <v>37</v>
       </c>
       <c r="N6" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2">
-        <v>543</v>
+        <v>331</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
-        <v>5430</v>
+        <v>3310</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -2517,33 +2295,33 @@
         <v>37</v>
       </c>
       <c r="N7" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>331</v>
+        <v>1416</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2">
-        <v>3310</v>
+        <v>14160</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
@@ -2561,33 +2339,33 @@
         <v>37</v>
       </c>
       <c r="N8" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2">
-        <v>1416</v>
+        <v>12964</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2">
-        <v>14160</v>
+        <v>129640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
@@ -2605,33 +2383,33 @@
         <v>37</v>
       </c>
       <c r="N9" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>12964</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2">
-        <v>129640</v>
+        <v>690</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -2649,33 +2427,33 @@
         <v>37</v>
       </c>
       <c r="N10" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>69</v>
+        <v>9435</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2">
-        <v>690</v>
+        <v>94350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>35</v>
@@ -2693,33 +2471,33 @@
         <v>37</v>
       </c>
       <c r="N11" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>9435</v>
+        <v>925</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2">
-        <v>94350</v>
+        <v>9250</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -2737,33 +2515,33 @@
         <v>37</v>
       </c>
       <c r="N12" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2">
-        <v>9250</v>
+        <v>520</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>35</v>
@@ -2781,33 +2559,33 @@
         <v>37</v>
       </c>
       <c r="N13" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>52</v>
+        <v>100000</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="2">
-        <v>520</v>
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>35</v>
@@ -2825,50 +2603,6 @@
         <v>37</v>
       </c>
       <c r="N14" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>112</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1322</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" s="2">
         <v>112</v>
       </c>
     </row>
@@ -2879,7 +2613,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2887,259 +2621,233 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="F1" s="1">
+        <v>21.62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.06</v>
       </c>
       <c r="F2" s="2">
-        <v>21.62</v>
+        <v>110.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
-        <v>8.06</v>
+        <v>85.83</v>
       </c>
       <c r="F3" s="2">
-        <v>110.82</v>
+        <v>8.44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>85.83</v>
+        <v>27.66</v>
       </c>
       <c r="F4" s="2">
-        <v>8.44</v>
+        <v>81.09</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2">
-        <v>27.66</v>
+        <v>24.88</v>
       </c>
       <c r="F5" s="2">
-        <v>81.09</v>
+        <v>92.89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2">
-        <v>24.88</v>
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="2">
-        <v>92.89</v>
+        <v>23.37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17.9</v>
       </c>
       <c r="F7" s="2">
-        <v>23.37</v>
+        <v>80.67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
-        <v>17.9</v>
+        <v>74.308</v>
       </c>
       <c r="F8" s="2">
-        <v>80.67</v>
+        <v>28.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2">
-        <v>74.308</v>
+        <v>52.17</v>
       </c>
       <c r="F9" s="2">
-        <v>28.67</v>
+        <v>40.17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>131</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2">
-        <v>52.17</v>
-      </c>
-      <c r="F10" s="2">
-        <v>40.17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3149,75 +2857,40 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="B1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>140</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +2900,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3235,24 +2908,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -3260,13 +2933,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -3274,13 +2947,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -3288,43 +2961,29 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>151</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段02300001地號</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段02300000地號</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>臺北市大安區懷生段三小段04960000地號</t>
   </si>
   <si>
+    <t>10000分之34</t>
+  </si>
+  <si>
     <t>26590分之90</t>
   </si>
   <si>
@@ -142,48 +148,45 @@
     <t>臺北市大安區懷生段三小段02158000建號(（陽台5.05平方公尺露台7.57平方公尺)）</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01616000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01759000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01760000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01761000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01762000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01769000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01770000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01825000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01826000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>100000分之303</t>
+  </si>
+  <si>
     <t>85年01月19曰</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01616000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01759000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01760000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01761000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01762000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01769000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01770000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01825000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01826000建號</t>
-  </si>
-  <si>
-    <t>1132.07</t>
-  </si>
-  <si>
-    <t>100000分之303</t>
-  </si>
-  <si>
     <t>76年01月01曰</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>南亞</t>
   </si>
   <si>
     <t>台灣積電</t>
@@ -819,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,213 +883,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2659</v>
+        <v>1808</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1322</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00338473110191801</v>
+        <v>0.0034</v>
       </c>
       <c r="Q2" s="2">
-        <v>9</v>
+        <v>6.1472</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4324.24</v>
+        <v>2659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1322</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.007721</v>
+        <v>0.00338473110191801</v>
       </c>
       <c r="Q3" s="2">
-        <v>33.38745704</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3083.12</v>
+        <v>4324.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1322</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>6e-05</v>
+        <v>0.007721</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.1849872</v>
+        <v>33.38745704</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>117</v>
+        <v>3083.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1322</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6e-05</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.1849872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2">
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>23.4</v>
       </c>
     </row>
@@ -1093,335 +1152,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1">
-        <v>62.37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2">
-        <v>131.42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2">
-        <v>163.72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
-        <v>88.29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>36.83</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2">
-        <v>51.15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <v>186.48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2">
-        <v>480.06</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <v>547.61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <v>605.17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1431,19 +1161,721 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>62.37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>131.42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>131.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>163.72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>163.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>88.29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.2675187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36.83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.1115949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>51.15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.1549845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>186.48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>33</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.5650344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2">
+        <v>480.06</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1.4545818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>547.61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2">
+        <v>35</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.6592583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1132.07</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.4301721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>605.17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="2">
+        <v>37</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.8336651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C1" s="1">
         <v>2349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1">
         <v>868000</v>
@@ -1451,24 +1883,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
-        <v>1275</v>
+        <v>2349</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2">
+        <v>868000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1275</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2">
         <v>376000</v>
       </c>
     </row>
@@ -1479,7 +1934,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1487,10 +1942,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1">
         <v>60000</v>
@@ -1498,15 +1953,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -1517,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1525,16 +1994,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1">
         <v>558456</v>
@@ -1542,47 +2011,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>55044</v>
+        <v>558456</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>129524</v>
+        <v>55044</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>64</v>
@@ -1591,370 +2060,370 @@
         <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
+        <v>129524</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
-        <v>117840</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>152689</v>
+        <v>117840</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
-        <v>22884</v>
+        <v>152689</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>921</v>
+        <v>22884</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
-        <v>126319</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2">
-        <v>534901</v>
+        <v>126319</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="2">
-        <v>499295</v>
+        <v>534901</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2">
-        <v>281</v>
+        <v>499295</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2">
-        <v>276737</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2">
-        <v>314961</v>
+        <v>276737</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2">
-        <v>759338</v>
+        <v>314961</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
-        <v>996008</v>
+        <v>759338</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2">
-        <v>54</v>
+        <v>996008</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
+      </c>
+      <c r="F18" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2">
-        <v>75454</v>
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2">
-        <v>76272</v>
+        <v>75454</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="F21" s="2">
+        <v>76272</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>84</v>
@@ -1962,21 +2431,41 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2">
         <v>52000</v>
       </c>
     </row>
@@ -1987,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2001,13 +2490,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2036,573 +2525,617 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>198</v>
+        <v>8325</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>1980</v>
+        <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>21055</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>210550</v>
+        <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1322</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>26924</v>
+        <v>21055</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>269240</v>
+        <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1322</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>6188</v>
+        <v>26924</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>61880</v>
+        <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1322</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>543</v>
+        <v>6188</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
-        <v>5430</v>
+        <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>331</v>
+        <v>543</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
-        <v>3310</v>
+        <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>1322</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>1416</v>
+        <v>331</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2">
-        <v>14160</v>
+        <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1322</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N8" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>12964</v>
+        <v>1416</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2">
-        <v>129640</v>
+        <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>1322</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N9" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>69</v>
+        <v>12964</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2">
-        <v>690</v>
+        <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2">
         <v>1322</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>9435</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2">
-        <v>94350</v>
+        <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2">
         <v>1322</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>925</v>
+        <v>9435</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2">
-        <v>9250</v>
+        <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2">
         <v>1322</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N12" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>52</v>
+        <v>925</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
-        <v>520</v>
+        <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2">
         <v>1322</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N13" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>100000</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="G14" s="2">
+        <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2">
         <v>1322</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="2">
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="2">
         <v>112</v>
       </c>
     </row>
@@ -2613,7 +3146,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2621,233 +3154,259 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1">
         <v>21.62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="2">
+        <v>21.62</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8.06</v>
-      </c>
-      <c r="F2" s="2">
-        <v>110.82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
-        <v>85.83</v>
+        <v>8.06</v>
       </c>
       <c r="F3" s="2">
-        <v>8.44</v>
+        <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
-        <v>27.66</v>
+        <v>85.83</v>
       </c>
       <c r="F4" s="2">
-        <v>81.09</v>
+        <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
-        <v>24.88</v>
+        <v>27.66</v>
       </c>
       <c r="F5" s="2">
-        <v>92.89</v>
+        <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24.88</v>
       </c>
       <c r="F6" s="2">
-        <v>23.37</v>
+        <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2">
+        <v>23.37</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17.9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>80.67</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
-        <v>74.308</v>
+        <v>17.9</v>
       </c>
       <c r="F8" s="2">
-        <v>28.67</v>
+        <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>130</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>74.308</v>
+      </c>
+      <c r="F9" s="2">
+        <v>28.67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>131</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
         <v>52.17</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>40.17</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>122</v>
+      <c r="G10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2857,40 +3416,73 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>131</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +3492,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2908,83 +3500,97 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
+        <v>150</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>151</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
+      <c r="B7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="149">
   <si>
     <t>name</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>(超堝石年）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>曰產</t>
@@ -1161,22 +1164,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1184,22 +1187,22 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1855,38 +1858,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1">
-        <v>2349</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>868000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2349</v>
@@ -1895,7 +1919,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
@@ -1903,13 +1927,34 @@
       <c r="G2" s="2">
         <v>868000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>1275</v>
@@ -1918,13 +1963,34 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>376000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2008,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1956,7 +2022,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1970,7 +2036,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1994,13 +2060,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -2014,13 +2080,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -2034,13 +2100,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -2054,13 +2120,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -2074,13 +2140,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2094,13 +2160,13 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2114,13 +2180,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -2134,13 +2200,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2154,13 +2220,13 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2174,13 +2240,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2194,16 +2260,16 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2">
         <v>534901</v>
@@ -2214,16 +2280,16 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2">
         <v>499295</v>
@@ -2234,13 +2300,13 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -2254,13 +2320,13 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2274,13 +2340,13 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -2294,13 +2360,13 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -2314,13 +2380,13 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2334,13 +2400,13 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2354,19 +2420,19 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2374,13 +2440,13 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2394,16 +2460,16 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2">
         <v>76272</v>
@@ -2414,19 +2480,19 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2434,19 +2500,19 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2454,13 +2520,13 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -2490,13 +2556,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2528,7 +2594,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2540,13 +2606,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2572,7 +2638,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2584,13 +2650,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2616,7 +2682,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2628,13 +2694,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2660,7 +2726,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2672,13 +2738,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2704,7 +2770,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2716,13 +2782,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2748,7 +2814,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2760,13 +2826,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2792,7 +2858,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2804,13 +2870,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2836,7 +2902,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2848,13 +2914,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -2880,7 +2946,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2892,13 +2958,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -2924,7 +2990,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2936,13 +3002,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -2968,7 +3034,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -2980,13 +3046,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>37</v>
@@ -3012,7 +3078,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -3024,13 +3090,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>37</v>
@@ -3056,7 +3122,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -3068,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>37</v>
@@ -3100,7 +3166,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -3112,13 +3178,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>37</v>
@@ -3154,25 +3220,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1">
         <v>21.62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3180,25 +3246,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3206,13 +3272,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3221,10 +3287,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3232,13 +3298,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3247,10 +3313,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3258,13 +3324,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -3273,10 +3339,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3284,13 +3350,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -3299,10 +3365,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3310,25 +3376,25 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3336,13 +3402,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -3351,10 +3417,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3362,13 +3428,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -3377,10 +3443,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3388,13 +3454,13 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -3403,10 +3469,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3424,32 +3490,32 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3457,32 +3523,32 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3500,10 +3566,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3514,10 +3580,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3528,10 +3594,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3542,10 +3608,10 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3556,10 +3622,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -3570,10 +3636,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3584,10 +3650,10 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -196,6 +196,9 @@
     <t>(超堝石年）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>93年07月20日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -1164,22 +1170,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1187,22 +1193,22 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1300,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1347,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1400,7 +1406,7 @@
         <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -1453,7 +1459,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -1506,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1559,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>37</v>
@@ -1612,7 +1618,7 @@
         <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>37</v>
@@ -1665,7 +1671,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>37</v>
@@ -1718,7 +1724,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -1771,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>37</v>
@@ -1824,7 +1830,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>37</v>
@@ -1869,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1910,7 +1916,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>2349</v>
@@ -1919,7 +1925,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
@@ -1928,7 +1934,7 @@
         <v>868000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -1954,7 +1960,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>1275</v>
@@ -1963,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -1972,7 +1978,7 @@
         <v>376000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2008,7 +2014,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -2022,7 +2028,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2036,7 +2042,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2060,13 +2066,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -2080,13 +2086,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -2100,13 +2106,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -2120,13 +2126,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -2140,13 +2146,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2160,13 +2166,13 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2180,13 +2186,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -2200,13 +2206,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2220,13 +2226,13 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2240,13 +2246,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2260,16 +2266,16 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2">
         <v>534901</v>
@@ -2280,16 +2286,16 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2">
         <v>499295</v>
@@ -2300,13 +2306,13 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -2320,13 +2326,13 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2340,13 +2346,13 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -2360,13 +2366,13 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -2380,13 +2386,13 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2400,13 +2406,13 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2420,19 +2426,19 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2440,13 +2446,13 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2460,16 +2466,16 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2">
         <v>76272</v>
@@ -2480,19 +2486,19 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2500,19 +2506,19 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2520,13 +2526,13 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -2556,13 +2562,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2594,7 +2600,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2606,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2638,7 +2644,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2650,13 +2656,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2682,7 +2688,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2694,13 +2700,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2726,7 +2732,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2738,13 +2744,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2770,7 +2776,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2782,13 +2788,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2814,7 +2820,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2826,13 +2832,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2858,7 +2864,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2870,13 +2876,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2902,7 +2908,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2914,13 +2920,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -2946,7 +2952,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2958,13 +2964,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -2990,7 +2996,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -3002,13 +3008,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -3034,7 +3040,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -3046,13 +3052,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>37</v>
@@ -3078,7 +3084,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -3090,13 +3096,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>37</v>
@@ -3122,7 +3128,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -3134,13 +3140,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>37</v>
@@ -3166,7 +3172,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -3178,13 +3184,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>37</v>
@@ -3220,25 +3226,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1">
         <v>21.62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3246,25 +3252,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3272,13 +3278,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3287,10 +3293,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3298,13 +3304,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3313,10 +3319,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3324,13 +3330,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -3339,10 +3345,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3350,13 +3356,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -3365,10 +3371,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3376,25 +3382,25 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3402,13 +3408,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -3417,10 +3423,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3428,13 +3434,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -3443,10 +3449,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3454,13 +3460,13 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -3469,10 +3475,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3490,32 +3496,32 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3523,32 +3529,32 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3566,10 +3572,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3580,10 +3586,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3594,10 +3600,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3608,10 +3614,10 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3622,10 +3628,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -3636,10 +3642,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3650,10 +3656,10 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="153">
   <si>
     <t>name</t>
   </si>
@@ -214,51 +214,63 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>台北銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>中華商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>上海商業儲蓄銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行劍潭分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>台北銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>中華商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>上海商業儲蓄銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行劍潭分行</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -283,64 +295,58 @@
     <t>吳肓昇</t>
   </si>
   <si>
-    <t>1682717</t>
-  </si>
-  <si>
-    <t>2024796</t>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>南亞</t>
+  </si>
+  <si>
+    <t>台灣積電</t>
+  </si>
+  <si>
+    <t>雅新</t>
+  </si>
+  <si>
+    <t>可成</t>
+  </si>
+  <si>
+    <t>萬海航運</t>
+  </si>
+  <si>
+    <t>亞泥</t>
+  </si>
+  <si>
+    <t>永大</t>
+  </si>
+  <si>
+    <t>中鋼</t>
+  </si>
+  <si>
+    <t>鴻海精密</t>
+  </si>
+  <si>
+    <t>大同</t>
+  </si>
+  <si>
+    <t>長榮航空</t>
+  </si>
+  <si>
+    <t>威健</t>
+  </si>
+  <si>
+    <t>中視</t>
+  </si>
+  <si>
+    <t>聯格科技</t>
   </si>
   <si>
     <t>1000000</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>南亞</t>
-  </si>
-  <si>
-    <t>台灣積電</t>
-  </si>
-  <si>
-    <t>雅新</t>
-  </si>
-  <si>
-    <t>可成</t>
-  </si>
-  <si>
-    <t>萬海航運</t>
-  </si>
-  <si>
-    <t>亞泥</t>
-  </si>
-  <si>
-    <t>永大</t>
-  </si>
-  <si>
-    <t>中鋼</t>
-  </si>
-  <si>
-    <t>鴻海精密</t>
-  </si>
-  <si>
-    <t>大同</t>
-  </si>
-  <si>
-    <t>長榮航空</t>
-  </si>
-  <si>
-    <t>威健</t>
-  </si>
-  <si>
-    <t>中視</t>
-  </si>
-  <si>
-    <t>聯格科技</t>
   </si>
   <si>
     <t>stock</t>
@@ -1170,22 +1176,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1193,22 +1199,22 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2006,29 +2012,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2036,19 +2063,61 @@
       <c r="D2" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>100000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2058,41 +2127,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1">
-        <v>558456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -2100,19 +2190,40 @@
       <c r="F2" s="2">
         <v>558456</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -2120,19 +2231,40 @@
       <c r="F3" s="2">
         <v>55044</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -2140,19 +2272,40 @@
       <c r="F4" s="2">
         <v>129524</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2160,19 +2313,40 @@
       <c r="F5" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2180,19 +2354,40 @@
       <c r="F6" s="2">
         <v>117840</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -2200,19 +2395,40 @@
       <c r="F7" s="2">
         <v>152689</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2220,19 +2436,40 @@
       <c r="F8" s="2">
         <v>22884</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2240,19 +2477,40 @@
       <c r="F9" s="2">
         <v>921</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2260,59 +2518,122 @@
       <c r="F10" s="2">
         <v>126319</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2">
         <v>534901</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2">
         <v>499295</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -2320,19 +2641,40 @@
       <c r="F13" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2340,19 +2682,40 @@
       <c r="F14" s="2">
         <v>276737</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -2360,19 +2723,40 @@
       <c r="F15" s="2">
         <v>314961</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -2380,19 +2764,40 @@
       <c r="F16" s="2">
         <v>759338</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2400,19 +2805,40 @@
       <c r="F17" s="2">
         <v>996008</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2420,39 +2846,81 @@
       <c r="F18" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1682717</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="2">
         <v>85</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2460,85 +2928,190 @@
       <c r="F20" s="2">
         <v>75454</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2">
         <v>76272</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="2">
+        <v>2024796</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="2">
         <v>52000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2562,13 +3135,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2600,7 +3173,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2612,13 +3185,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2644,7 +3217,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2656,13 +3229,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2688,7 +3261,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2700,13 +3273,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2732,7 +3305,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2744,13 +3317,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2776,7 +3349,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2788,13 +3361,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2820,7 +3393,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2832,13 +3405,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2864,7 +3437,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2876,13 +3449,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2908,7 +3481,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2920,13 +3493,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -2952,7 +3525,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2964,13 +3537,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -2996,7 +3569,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -3008,13 +3581,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -3040,7 +3613,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -3052,13 +3625,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>37</v>
@@ -3084,7 +3657,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -3096,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>37</v>
@@ -3128,7 +3701,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -3140,13 +3713,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>37</v>
@@ -3172,7 +3745,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -3184,13 +3757,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>37</v>
@@ -3226,25 +3799,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1">
         <v>21.62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3252,25 +3825,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3278,13 +3851,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3293,10 +3866,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3304,13 +3877,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3319,10 +3892,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3330,13 +3903,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -3345,10 +3918,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3356,13 +3929,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -3371,10 +3944,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3382,25 +3955,25 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3408,13 +3981,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -3423,10 +3996,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3434,13 +4007,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -3449,10 +4022,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3460,13 +4033,13 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -3475,10 +4048,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3496,32 +4069,32 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3529,32 +4102,32 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3572,10 +4145,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3586,10 +4159,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3600,10 +4173,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3614,10 +4187,10 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3628,10 +4201,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -3642,10 +4215,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3656,10 +4229,10 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -14,16 +14,15 @@
     <sheet name="存款" sheetId="5" r:id="rId5"/>
     <sheet name="股票" sheetId="6" r:id="rId6"/>
     <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="其他有價證券" sheetId="8" r:id="rId8"/>
-    <sheet name="保險" sheetId="9" r:id="rId9"/>
-    <sheet name="債務" sheetId="10" r:id="rId10"/>
+    <sheet name="保險" sheetId="8" r:id="rId8"/>
+    <sheet name="債務" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -352,94 +351,40 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>施羅德新興亞洲</t>
   </si>
   <si>
-    <t>6036</t>
+    <t>貝萊德新興歐洲</t>
+  </si>
+  <si>
+    <t>富達歐洲</t>
+  </si>
+  <si>
+    <t>貝萊德拉丁美洲</t>
+  </si>
+  <si>
+    <t>摩根東協</t>
+  </si>
+  <si>
+    <t>摩根大中華</t>
+  </si>
+  <si>
+    <t>坦伯頓全球亞洲成長</t>
+  </si>
+  <si>
+    <t>富達拉丁美洲</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
-    <t>39279.99</t>
-  </si>
-  <si>
-    <t>貝萊德新興歐洲</t>
-  </si>
-  <si>
-    <t>富達歐洲</t>
-  </si>
-  <si>
-    <t>貝萊德拉丁美洲</t>
-  </si>
-  <si>
-    <t>摩根東協</t>
-  </si>
-  <si>
-    <t>摩根大中華</t>
-  </si>
-  <si>
-    <t>坦伯頓全球亞洲成長</t>
-  </si>
-  <si>
-    <t>富達拉丁美洲</t>
-  </si>
-  <si>
-    <t>1208.587</t>
-  </si>
-  <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>26885.60</t>
-  </si>
-  <si>
-    <t>28744.40</t>
-  </si>
-  <si>
-    <t>67512.78</t>
-  </si>
-  <si>
-    <t>69564.21</t>
-  </si>
-  <si>
-    <t>850164.81</t>
-  </si>
-  <si>
-    <t>57297.64</t>
-  </si>
-  <si>
-    <t>64125.35</t>
-  </si>
-  <si>
-    <t>63079.63</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>價</t>
+    <t>fund</t>
   </si>
   <si>
     <t>大都會國際人壽</t>
@@ -1166,62 +1111,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>161</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q12"/>
@@ -3791,41 +3680,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1">
-        <v>21.62</v>
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>88</v>
@@ -3833,25 +3743,46 @@
       <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>110</v>
+      <c r="E2" s="2">
+        <v>6036</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2">
+        <v>39279.99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>88</v>
@@ -3866,18 +3797,39 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="H3" s="2">
+        <v>26885.6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>87</v>
@@ -3892,18 +3844,39 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28744.4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -3918,18 +3891,39 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="H5" s="2">
+        <v>67512.78</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3944,18 +3938,39 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2">
+        <v>69564.21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -3963,25 +3978,46 @@
       <c r="D7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>120</v>
+      <c r="E7" s="2">
+        <v>1208.587</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="H7" s="2">
+        <v>850164.81</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -3996,18 +4032,39 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="H8" s="2">
+        <v>57297.64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -4022,18 +4079,39 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="H9" s="2">
+        <v>64125.35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -4048,10 +4126,31 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="H10" s="2">
+        <v>63079.63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4060,82 +4159,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>140</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -4145,10 +4168,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -4159,10 +4182,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -4173,10 +4196,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -4187,10 +4210,10 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -4201,10 +4224,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -4215,10 +4238,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -4229,13 +4252,69 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -387,21 +387,24 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>大都會國際人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>友邦人壽</t>
+  </si>
+  <si>
     <t>大都會終身壽險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>友邦人壽</t>
-  </si>
-  <si>
     <t>富邦人壽子女儲蓄保險</t>
   </si>
   <si>
@@ -414,19 +417,28 @@
     <t>南山康寧終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>臺灣土地銀行萬華分行臺北市萬華區西園路</t>
   </si>
   <si>
-    <t>1938296</t>
-  </si>
-  <si>
     <t>95年03月20日</t>
   </si>
   <si>
     <t>貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -4160,38 +4172,80 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>147</v>
       </c>
@@ -4199,13 +4253,34 @@
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>148</v>
       </c>
@@ -4213,13 +4288,34 @@
         <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>149</v>
       </c>
@@ -4227,13 +4323,34 @@
         <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>150</v>
       </c>
@@ -4241,13 +4358,34 @@
         <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>151</v>
       </c>
@@ -4255,10 +4393,31 @@
         <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4268,53 +4427,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1938296</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2011-11-17_財產申報表_tmpe6fb1.xlsx
@@ -14,15 +14,16 @@
     <sheet name="存款" sheetId="5" r:id="rId5"/>
     <sheet name="股票" sheetId="6" r:id="rId6"/>
     <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
-    <sheet name="債務" sheetId="9" r:id="rId9"/>
+    <sheet name="珠寶、古董、字畫" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="9" r:id="rId9"/>
+    <sheet name="債務" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -385,6 +386,15 @@
   </si>
   <si>
     <t>fund</t>
+  </si>
+  <si>
+    <t>黃金存措</t>
+  </si>
+  <si>
+    <t>2970000</t>
+  </si>
+  <si>
+    <t>antique</t>
   </si>
   <si>
     <t>company</t>
@@ -1123,6 +1133,104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1938296</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q12"/>
@@ -4172,6 +4280,92 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4180,7 +4374,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4215,16 +4409,16 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
@@ -4250,16 +4444,16 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>37</v>
@@ -4285,16 +4479,16 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>37</v>
@@ -4320,16 +4514,16 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
@@ -4355,16 +4549,16 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>37</v>
@@ -4390,16 +4584,16 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
@@ -4418,104 +4612,6 @@
       </c>
       <c r="K7" s="2">
         <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>161</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1938296</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1322</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="2">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
